--- a/ChosenAccidents.xlsx
+++ b/ChosenAccidents.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mustafa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mustafa\Documents\git\TrafficData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -201,6 +201,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="A1:T73" totalsRowShown="0">
+  <autoFilter ref="A1:T73"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="Accident_Index"/>
+    <tableColumn id="2" name="Vehicle_Reference"/>
+    <tableColumn id="3" name="Vehicle_Type"/>
+    <tableColumn id="4" name="Towing_and_Articulation"/>
+    <tableColumn id="5" name="Vehicle_Manoeuvre"/>
+    <tableColumn id="6" name="Vehicle_Location-Restricted_Lane"/>
+    <tableColumn id="7" name="Junction_Location"/>
+    <tableColumn id="8" name="Skidding_and_Overturning"/>
+    <tableColumn id="9" name="Hit_Object_in_Carriageway"/>
+    <tableColumn id="10" name="Vehicle_Leaving_Carriageway"/>
+    <tableColumn id="11" name="Hit_Object_off_Carriageway"/>
+    <tableColumn id="12" name="1st_Point_of_Impact"/>
+    <tableColumn id="13" name="Was_Vehicle_Left_Hand_Drive?"/>
+    <tableColumn id="14" name="Journey_Purpose_of_Driver"/>
+    <tableColumn id="15" name="Sex_of_Driver"/>
+    <tableColumn id="16" name="Age_of_Driver"/>
+    <tableColumn id="17" name="Age_Band_of_Driver"/>
+    <tableColumn id="18" name="Engine_Capacity_(CC)"/>
+    <tableColumn id="19" name="Propulsion_Code"/>
+    <tableColumn id="20" name="Age_of_Vehicle"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,31 +532,31 @@
   <dimension ref="A1:W73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="25" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="25.5703125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="27.85546875" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="26.42578125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="29.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" customWidth="1"/>
     <col min="18" max="18" width="20.42578125" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="16.28515625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="23.5703125" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="19.140625" hidden="1" customWidth="1"/>
@@ -4511,5 +4540,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>